--- a/Multiknapsack/results/random_recourse/multicut/M50_N100_T50_a25_ccg.xlsx
+++ b/Multiknapsack/results/random_recourse/multicut/M50_N100_T50_a25_ccg.xlsx
@@ -474,7 +474,7 @@
         <v>-293.7949710294394</v>
       </c>
       <c r="C2">
-        <v>1207.590717448</v>
+        <v>1558.745014792</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -500,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-294.05883334087946</v>
+        <v>-294.0588335191238</v>
       </c>
       <c r="C3">
-        <v>1207.327320919</v>
+        <v>1645.257154413</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -532,7 +532,7 @@
         <v>-300.34839802008264</v>
       </c>
       <c r="C4">
-        <v>1213.54494626</v>
+        <v>1554.263870447</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -558,10 +558,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-310.9196352199231</v>
+        <v>-310.91964141596964</v>
       </c>
       <c r="C5">
-        <v>1222.495878567</v>
+        <v>1699.692840245</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -590,7 +590,7 @@
         <v>-293.08011822664633</v>
       </c>
       <c r="C6">
-        <v>1219.903576596</v>
+        <v>1393.708519756</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -616,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-289.1521052486154</v>
+        <v>-289.1521084718518</v>
       </c>
       <c r="C7">
-        <v>1218.305361683</v>
+        <v>1477.990904947</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -645,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-289.45353780218966</v>
+        <v>-289.4535385188108</v>
       </c>
       <c r="C8">
-        <v>1220.637681155</v>
+        <v>1724.609746343</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -674,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-297.2453470329475</v>
+        <v>-297.2453482314797</v>
       </c>
       <c r="C9">
-        <v>1213.26706265</v>
+        <v>1732.950549479</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -706,7 +706,7 @@
         <v>-293.1833916582113</v>
       </c>
       <c r="C10">
-        <v>1216.104567516</v>
+        <v>1471.869400483</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -732,10 +732,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-290.8481230346033</v>
+        <v>-290.8481265135091</v>
       </c>
       <c r="C11">
-        <v>1220.239298847</v>
+        <v>1682.924468688</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -797,7 +797,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>12.370616063173095</v>
+        <v>11.39285297255835</v>
       </c>
       <c r="E2">
         <v>144.24985</v>
@@ -811,10 +811,10 @@
         <v>-293.1833916582113</v>
       </c>
       <c r="C3">
-        <v>23.408638592030695</v>
+        <v>0.09853046917666822</v>
       </c>
       <c r="D3">
-        <v>1005.9416669725935</v>
+        <v>1289.0566291998566</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -861,7 +861,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.30989664910791</v>
+        <v>11.480271931857787</v>
       </c>
       <c r="E2">
         <v>147.49104</v>
@@ -872,13 +872,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-290.8481230346033</v>
+        <v>-290.8481265135091</v>
       </c>
       <c r="C3">
-        <v>23.383584204558723</v>
+        <v>0.09890365031765205</v>
       </c>
       <c r="D3">
-        <v>1004.7568816416458</v>
+        <v>1496.6552567206165</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -925,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>12.081873005180054</v>
+        <v>12.162772600015748</v>
       </c>
       <c r="E2">
         <v>152.38696</v>
@@ -939,10 +939,10 @@
         <v>-293.7949710294394</v>
       </c>
       <c r="C3">
-        <v>24.532080882018626</v>
+        <v>0.09931988343507074</v>
       </c>
       <c r="D3">
-        <v>1005.9252320554154</v>
+        <v>1365.8991445223621</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -989,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.037973944939454</v>
+        <v>11.10775505737146</v>
       </c>
       <c r="E2">
         <v>136.38241</v>
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-294.05883334087946</v>
+        <v>-294.0588335191238</v>
       </c>
       <c r="C3">
-        <v>22.58912543326502</v>
+        <v>0.09984968599936547</v>
       </c>
       <c r="D3">
-        <v>1008.5784638835457</v>
+        <v>1459.127938226209</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1053,7 +1053,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>12.004633256505615</v>
+        <v>10.856261543238158</v>
       </c>
       <c r="E2">
         <v>149.6355</v>
@@ -1067,10 +1067,10 @@
         <v>-300.34839802008264</v>
       </c>
       <c r="C3">
-        <v>21.98881880477168</v>
+        <v>0.09891464146849462</v>
       </c>
       <c r="D3">
-        <v>1009.3876423484695</v>
+        <v>1357.7975181383065</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1117,7 +1117,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>14.49533233577185</v>
+        <v>8.667483506511108</v>
       </c>
       <c r="E2">
         <v>152.95913</v>
@@ -1128,13 +1128,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-310.9196352199231</v>
+        <v>-310.91964141596964</v>
       </c>
       <c r="C3">
-        <v>18.51978050771236</v>
+        <v>0.09953831106588644</v>
       </c>
       <c r="D3">
-        <v>1007.6418956336527</v>
+        <v>1504.8636000097963</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1181,7 +1181,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.306608643617187</v>
+        <v>9.482368619759399</v>
       </c>
       <c r="E2">
         <v>137.28801</v>
@@ -1195,10 +1195,10 @@
         <v>-293.08011822664633</v>
       </c>
       <c r="C3">
-        <v>21.71239734686697</v>
+        <v>0.09970841934601037</v>
       </c>
       <c r="D3">
-        <v>1012.1403940682458</v>
+        <v>1205.7786305326433</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1245,7 +1245,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.637778053287109</v>
+        <v>10.48290535045227</v>
       </c>
       <c r="E2">
         <v>150.45432</v>
@@ -1256,13 +1256,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-289.1521052486154</v>
+        <v>-289.1521084718518</v>
       </c>
       <c r="C3">
-        <v>23.216536689928024</v>
+        <v>0.09941662992235027</v>
       </c>
       <c r="D3">
-        <v>1007.9746758439493</v>
+        <v>1294.6709836654184</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1309,7 +1309,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.862052282676148</v>
+        <v>8.774918612987793</v>
       </c>
       <c r="E2">
         <v>151.26384</v>
@@ -1320,13 +1320,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-289.45353780218966</v>
+        <v>-289.4535385188108</v>
       </c>
       <c r="C3">
-        <v>24.532316274793644</v>
+        <v>0.09874109767856738</v>
       </c>
       <c r="D3">
-        <v>1009.4794154679846</v>
+        <v>1537.9116008021317</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1373,7 +1373,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.173600789914184</v>
+        <v>10.844031115531006</v>
       </c>
       <c r="E2">
         <v>152.81792</v>
@@ -1384,13 +1384,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-297.2453470329475</v>
+        <v>-297.2453482314797</v>
       </c>
       <c r="C3">
-        <v>21.14772223147632</v>
+        <v>0.09988564803127002</v>
       </c>
       <c r="D3">
-        <v>1007.0880713113792</v>
+        <v>1547.4782334284005</v>
       </c>
       <c r="E3">
         <v>0.0</v>
